--- a/medicine/Pharmacie/Phylloquinone/Phylloquinone.xlsx
+++ b/medicine/Pharmacie/Phylloquinone/Phylloquinone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phylloquinone, également appelée vitamine K1 ou phytoménadione, est une 2-méthyl-1,4-naphtoquinone substituée avec un résidu 3-phytyle. C'est une vitamine K, liposoluble, stable à l'air et à l'humidité, mais qui se décompose à la lumière du jour. On la trouve naturellement dans une grande variété de plantes, où elle joue le rôle d'accepteur d'électrons dans les chloroplastes au sein du photosystème I des membranes thylakoïdes.
 Elle intervient comme cofacteur dans la formation des facteurs de coagulation II (prothrombine), VII, IX et X dans le foie. Elle est utilisée pour remédier à la toxicité du coumaphène (warfarine) et comme antidote pour le coumatrétralyl.
 Elle se trouve naturellement dans les feuilles vertes des végétaux notamment les choux, épinards, brocolis.
-Chez les personnes atteintes de diabète sucré, la supplémentation en vitamine K1 pendant 3 mois (10 mg/j) peut réduire le développement de nouvelles lésions calcifiantes dans les artères coronaires, comme observé par la tomographie par émission de positons[2]. Cependant, des études à plus long terme sont nécessaires pour confirmer ces résultats et évaluer l'efficacité à long terme de la supplémentation en vitamine K1[2].
+Chez les personnes atteintes de diabète sucré, la supplémentation en vitamine K1 pendant 3 mois (10 mg/j) peut réduire le développement de nouvelles lésions calcifiantes dans les artères coronaires, comme observé par la tomographie par émission de positons. Cependant, des études à plus long terme sont nécessaires pour confirmer ces résultats et évaluer l'efficacité à long terme de la supplémentation en vitamine K1.
 </t>
         </is>
       </c>
